--- a/results/mp/logistic/corona/confidence/84/masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="135">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,117 +40,108 @@
     <t>name</t>
   </si>
   <si>
+    <t>arrested</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>kill</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
     <t>lowest</t>
   </si>
   <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>warning</t>
   </si>
   <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
     <t>problem</t>
   </si>
   <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>saudi</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>pressure</t>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>cut</t>
   </si>
   <si>
     <t>selfish</t>
   </si>
   <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>shit</t>
+    <t>empty</t>
   </si>
   <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>risk</t>
   </si>
   <si>
@@ -169,256 +160,265 @@
     <t>prices</t>
   </si>
   <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>19</t>
+    <t>is</t>
+  </si>
+  <si>
+    <t>on</t>
   </si>
   <si>
     <t>are</t>
   </si>
   <si>
-    <t>on</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>to</t>
   </si>
   <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
     <t>in</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>our</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>at</t>
-  </si>
-  <si>
-    <t>for</t>
   </si>
 </sst>
 </file>
@@ -776,7 +776,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q81"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -784,10 +784,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -845,13 +845,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8082191780821918</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C3">
-        <v>236</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>236</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -863,19 +863,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K3">
-        <v>0.9491525423728814</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -895,13 +895,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7894736842105263</v>
+        <v>0.8013698630136986</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>234</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>234</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -913,19 +913,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K4">
-        <v>0.9347826086956522</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L4">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="M4">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -945,13 +945,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7837837837837838</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -963,19 +963,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K5">
-        <v>0.9230769230769231</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L5">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -995,13 +995,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7666666666666667</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1013,10 +1013,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K6">
         <v>0.8947368421052632</v>
@@ -1045,13 +1045,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7647058823529411</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K7">
-        <v>0.8888888888888888</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L7">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="M7">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1087,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1095,13 +1095,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7631578947368421</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C8">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1113,19 +1113,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K8">
-        <v>0.875</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L8">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="M8">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1137,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1145,13 +1145,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7586206896551724</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1163,19 +1163,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K9">
-        <v>0.8666666666666667</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="L9">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M9">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1195,13 +1195,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.75</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1213,19 +1213,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K10">
-        <v>0.8571428571428571</v>
+        <v>0.8276762402088773</v>
       </c>
       <c r="L10">
-        <v>96</v>
+        <v>317</v>
       </c>
       <c r="M10">
-        <v>96</v>
+        <v>317</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1245,13 +1245,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6956521739130435</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1266,16 +1266,16 @@
         <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K11">
-        <v>0.8448275862068966</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1295,49 +1295,49 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6956521739130435</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C12">
+        <v>27</v>
+      </c>
+      <c r="D12">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12">
+        <v>0.8048780487804879</v>
+      </c>
+      <c r="L12">
+        <v>66</v>
+      </c>
+      <c r="M12">
+        <v>66</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>16</v>
-      </c>
-      <c r="D12">
-        <v>16</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>7</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K12">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L12">
-        <v>15</v>
-      </c>
-      <c r="M12">
-        <v>15</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1345,13 +1345,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6842105263157895</v>
+        <v>0.7</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1363,19 +1363,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K13">
-        <v>0.8276762402088773</v>
+        <v>0.7890625</v>
       </c>
       <c r="L13">
-        <v>317</v>
+        <v>101</v>
       </c>
       <c r="M13">
-        <v>317</v>
+        <v>101</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>66</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1395,13 +1395,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6538461538461539</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C14">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1413,19 +1413,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K14">
-        <v>0.8125</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L14">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="M14">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1437,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1445,13 +1445,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.64</v>
+        <v>0.68</v>
       </c>
       <c r="C15">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D15">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1463,19 +1463,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K15">
-        <v>0.8125</v>
+        <v>0.78125</v>
       </c>
       <c r="L15">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="M15">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1498,10 +1498,10 @@
         <v>0.6</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D16">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1513,19 +1513,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K16">
-        <v>0.7926829268292683</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L16">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="M16">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1545,13 +1545,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5806451612903226</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="C17">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D17">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1563,19 +1563,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K17">
-        <v>0.7878787878787878</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L17">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M17">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1595,13 +1595,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5767195767195767</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="C18">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="D18">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1613,19 +1613,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K18">
-        <v>0.7830188679245284</v>
+        <v>0.75</v>
       </c>
       <c r="L18">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="M18">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1637,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1645,13 +1645,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5686274509803921</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C19">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D19">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K19">
-        <v>0.7777777777777778</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L19">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="M19">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1695,13 +1695,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.55</v>
+        <v>0.5426356589147286</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>280</v>
       </c>
       <c r="D20">
-        <v>22</v>
+        <v>280</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1713,19 +1713,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>18</v>
+        <v>236</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K20">
-        <v>0.76875</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="L20">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="M20">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1737,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1745,13 +1745,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5423728813559322</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="C21">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="D21">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1763,19 +1763,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K21">
-        <v>0.7676056338028169</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L21">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="M21">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1787,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1816,16 +1816,16 @@
         <v>12</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K22">
-        <v>0.7659574468085106</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L22">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="M22">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1837,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1845,13 +1845,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5368217054263565</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C23">
-        <v>277</v>
+        <v>16</v>
       </c>
       <c r="D23">
-        <v>277</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1863,19 +1863,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>239</v>
+        <v>15</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K23">
-        <v>0.75</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L23">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M23">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1887,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1895,13 +1895,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5161290322580645</v>
+        <v>0.5</v>
       </c>
       <c r="C24">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D24">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1913,19 +1913,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K24">
-        <v>0.75</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L24">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M24">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1945,13 +1945,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C25">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D25">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1963,19 +1963,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K25">
-        <v>0.7441860465116279</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="L25">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M25">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1995,13 +1995,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4832214765100671</v>
+        <v>0.4496644295302014</v>
       </c>
       <c r="C26">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D26">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2013,19 +2013,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K26">
-        <v>0.7435897435897436</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L26">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M26">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2045,13 +2045,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4814814814814815</v>
+        <v>0.44</v>
       </c>
       <c r="C27">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D27">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2063,19 +2063,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K27">
-        <v>0.7301587301587301</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L27">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="M27">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2095,7 +2095,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4722222222222222</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="C28">
         <v>17</v>
@@ -2113,19 +2113,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K28">
-        <v>0.7272727272727273</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L28">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M28">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2145,7 +2145,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4594594594594595</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="C29">
         <v>17</v>
@@ -2163,19 +2163,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K29">
-        <v>0.7222222222222222</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L29">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M29">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2187,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2195,13 +2195,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4516129032258064</v>
+        <v>0.425</v>
       </c>
       <c r="C30">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="D30">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2213,19 +2213,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>17</v>
+        <v>207</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K30">
-        <v>0.7083333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L30">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="M30">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2237,7 +2237,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2245,13 +2245,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.40625</v>
+        <v>0.4107142857142857</v>
       </c>
       <c r="C31">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D31">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2263,19 +2263,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K31">
-        <v>0.6857142857142857</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L31">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M31">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2295,13 +2295,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4055555555555556</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C32">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="D32">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2313,19 +2313,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>214</v>
+        <v>22</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K32">
-        <v>0.6818181818181818</v>
+        <v>0.6558823529411765</v>
       </c>
       <c r="L32">
-        <v>15</v>
+        <v>223</v>
       </c>
       <c r="M32">
-        <v>15</v>
+        <v>223</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2337,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>7</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2345,13 +2345,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3846153846153846</v>
+        <v>0.4</v>
       </c>
       <c r="C33">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D33">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2363,19 +2363,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K33">
-        <v>0.6735294117647059</v>
+        <v>0.65</v>
       </c>
       <c r="L33">
-        <v>229</v>
+        <v>26</v>
       </c>
       <c r="M33">
-        <v>229</v>
+        <v>26</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2387,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>111</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2395,13 +2395,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3818181818181818</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C34">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D34">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2413,10 +2413,10 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K34">
         <v>0.6428571428571429</v>
@@ -2445,13 +2445,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3818181818181818</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="C35">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D35">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2463,19 +2463,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K35">
-        <v>0.6307692307692307</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L35">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="M35">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2495,13 +2495,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3733333333333334</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C36">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D36">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2513,19 +2513,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K36">
-        <v>0.625</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L36">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M36">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2537,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2545,13 +2545,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.358974358974359</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C37">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D37">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2563,19 +2563,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K37">
-        <v>0.62</v>
+        <v>0.606694560669456</v>
       </c>
       <c r="L37">
-        <v>31</v>
+        <v>145</v>
       </c>
       <c r="M37">
-        <v>31</v>
+        <v>145</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2587,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>19</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2595,13 +2595,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3392857142857143</v>
+        <v>0.25</v>
       </c>
       <c r="C38">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="D38">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2613,31 +2613,31 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>37</v>
+        <v>189</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K38">
-        <v>0.5884353741496599</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="L38">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="M38">
-        <v>174</v>
+        <v>20</v>
       </c>
       <c r="N38">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>121</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2645,13 +2645,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3</v>
+        <v>0.2125</v>
       </c>
       <c r="C39">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D39">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2666,28 +2666,28 @@
         <v>63</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K39">
-        <v>0.5857740585774058</v>
+        <v>0.6020408163265306</v>
       </c>
       <c r="L39">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="M39">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>99</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2695,13 +2695,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2857142857142857</v>
+        <v>0.1796246648793566</v>
       </c>
       <c r="C40">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="D40">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2713,19 +2713,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>55</v>
+        <v>306</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K40">
-        <v>0.5851063829787234</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L40">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M40">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2737,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2745,13 +2745,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2777777777777778</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="C41">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="D41">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>182</v>
+        <v>268</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K41">
         <v>0.5652173913043478</v>
@@ -2795,37 +2795,37 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2</v>
+        <v>0.02588438308886971</v>
       </c>
       <c r="C42">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D42">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>64</v>
+        <v>1129</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K42">
-        <v>0.5454545454545454</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L42">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M42">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2845,37 +2845,37 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1662198391420912</v>
+        <v>0.02285230639018197</v>
       </c>
       <c r="C43">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D43">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>311</v>
+        <v>2309</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K43">
-        <v>0.5416666666666666</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L43">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M43">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2895,37 +2895,37 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1</v>
+        <v>0.01838755304101839</v>
       </c>
       <c r="C44">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D44">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>270</v>
+        <v>694</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K44">
-        <v>0.5357142857142857</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="L44">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="M44">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2937,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2945,37 +2945,37 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.02072538860103627</v>
+        <v>0.016</v>
       </c>
       <c r="C45">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D45">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E45">
-        <v>0.11</v>
+        <v>0.33</v>
       </c>
       <c r="F45">
-        <v>0.89</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>1134</v>
+        <v>861</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K45">
-        <v>0.5285714285714286</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L45">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="M45">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2987,7 +2987,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2995,28 +2995,28 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01580135440180587</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="C46">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="D46">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E46">
-        <v>0.11</v>
+        <v>0.3</v>
       </c>
       <c r="F46">
-        <v>0.89</v>
+        <v>0.7</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>3052</v>
+        <v>2100</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K46">
         <v>0.5185185185185185</v>
@@ -3045,37 +3045,37 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.01517067003792667</v>
+        <v>0.01388440426218922</v>
       </c>
       <c r="C47">
+        <v>43</v>
+      </c>
+      <c r="D47">
+        <v>53</v>
+      </c>
+      <c r="E47">
+        <v>0.19</v>
+      </c>
+      <c r="F47">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>3054</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K47">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="L47">
         <v>36</v>
       </c>
-      <c r="D47">
-        <v>42</v>
-      </c>
-      <c r="E47">
-        <v>0.14</v>
-      </c>
-      <c r="F47">
-        <v>0.86</v>
-      </c>
-      <c r="G47" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <v>2337</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K47">
-        <v>0.5</v>
-      </c>
-      <c r="L47">
-        <v>14</v>
-      </c>
       <c r="M47">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3087,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3095,37 +3095,37 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01358950328022493</v>
+        <v>0.01330376940133038</v>
       </c>
       <c r="C48">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D48">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E48">
-        <v>0.24</v>
+        <v>0.36</v>
       </c>
       <c r="F48">
-        <v>0.76</v>
+        <v>0.64</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>2105</v>
+        <v>1335</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K48">
-        <v>0.4943820224719101</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L48">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M48">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3137,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>45</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3145,37 +3145,37 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.01341752170481452</v>
+        <v>0.01140350877192983</v>
       </c>
       <c r="C49">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D49">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E49">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>0.4399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>1250</v>
+        <v>1127</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K49">
-        <v>0.4523809523809524</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="L49">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M49">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3195,28 +3195,28 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.013215859030837</v>
+        <v>0.01103230890464933</v>
       </c>
       <c r="C50">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D50">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E50">
-        <v>0.25</v>
+        <v>0.59</v>
       </c>
       <c r="F50">
-        <v>0.75</v>
+        <v>0.41</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>1120</v>
+        <v>1255</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K50">
         <v>0.4444444444444444</v>
@@ -3245,37 +3245,37 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01220575414123801</v>
+        <v>0.009594417793283908</v>
       </c>
       <c r="C51">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D51">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E51">
-        <v>0.35</v>
+        <v>0.42</v>
       </c>
       <c r="F51">
-        <v>0.65</v>
+        <v>0.5800000000000001</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
       </c>
       <c r="H51">
-        <v>2266</v>
+        <v>2271</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K51">
-        <v>0.4313725490196079</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="L51">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M51">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3287,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3295,37 +3295,37 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.00862671951503847</v>
+        <v>0.009376831412385232</v>
       </c>
       <c r="C52">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D52">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E52">
+        <v>0.49</v>
+      </c>
+      <c r="F52">
         <v>0.51</v>
       </c>
-      <c r="F52">
-        <v>0.49</v>
-      </c>
       <c r="G52" t="b">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>4252</v>
+        <v>5071</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K52">
-        <v>0.3835616438356164</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="L52">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="M52">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3337,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3345,37 +3345,37 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.008399440037330844</v>
+        <v>0.008287851222963412</v>
       </c>
       <c r="C53">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D53">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="E53">
-        <v>0.45</v>
+        <v>0.54</v>
       </c>
       <c r="F53">
-        <v>0.55</v>
+        <v>0.46</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>2125</v>
+        <v>4906</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K53">
-        <v>0.3442622950819672</v>
+        <v>0.3125</v>
       </c>
       <c r="L53">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M53">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3395,37 +3395,37 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.007810974419058777</v>
+        <v>0.007704879757179547</v>
       </c>
       <c r="C54">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D54">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E54">
-        <v>0.52</v>
+        <v>0.58</v>
       </c>
       <c r="F54">
-        <v>0.48</v>
+        <v>0.42</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
       </c>
       <c r="H54">
-        <v>5081</v>
+        <v>4250</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K54">
-        <v>0.3333333333333333</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="L54">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M54">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3437,7 +3437,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3445,37 +3445,37 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.007651109410864576</v>
+        <v>0.007456503728251864</v>
       </c>
       <c r="C55">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D55">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="E55">
-        <v>0.75</v>
+        <v>0.63</v>
       </c>
       <c r="F55">
-        <v>0.25</v>
+        <v>0.37</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
       </c>
       <c r="H55">
-        <v>2594</v>
+        <v>2396</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K55">
-        <v>0.3333333333333333</v>
+        <v>0.2459016393442623</v>
       </c>
       <c r="L55">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M55">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3487,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3495,37 +3495,37 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.007482305358948432</v>
+        <v>0.005989911727616645</v>
       </c>
       <c r="C56">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D56">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="E56">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="F56">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
       </c>
       <c r="H56">
-        <v>4908</v>
+        <v>3153</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K56">
-        <v>0.3220338983050847</v>
+        <v>0.2280701754385965</v>
       </c>
       <c r="L56">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M56">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3537,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -3545,87 +3545,63 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.005782734407269723</v>
+        <v>0.005718642775447961</v>
       </c>
       <c r="C57">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D57">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="E57">
-        <v>0.63</v>
+        <v>0.77</v>
       </c>
       <c r="F57">
-        <v>0.37</v>
+        <v>0.23</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
       </c>
       <c r="H57">
-        <v>2407</v>
+        <v>2608</v>
       </c>
       <c r="J57" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K57">
+        <v>0.1574074074074074</v>
+      </c>
+      <c r="L57">
+        <v>17</v>
+      </c>
+      <c r="M57">
+        <v>18</v>
+      </c>
+      <c r="N57">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O57">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="J58" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="K57">
-        <v>0.296875</v>
-      </c>
-      <c r="L57">
-        <v>19</v>
-      </c>
-      <c r="M57">
-        <v>19</v>
-      </c>
-      <c r="N57">
-        <v>1</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17">
-      <c r="A58" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58">
-        <v>0.005376344086021506</v>
-      </c>
-      <c r="C58">
+      <c r="K58">
+        <v>0.1370967741935484</v>
+      </c>
+      <c r="L58">
         <v>17</v>
       </c>
-      <c r="D58">
-        <v>56</v>
-      </c>
-      <c r="E58">
-        <v>0.7</v>
-      </c>
-      <c r="F58">
-        <v>0.3</v>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58">
-        <v>3145</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K58">
-        <v>0.1467889908256881</v>
-      </c>
-      <c r="L58">
-        <v>16</v>
-      </c>
       <c r="M58">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3637,21 +3613,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>93</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:17">
       <c r="J59" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K59">
-        <v>0.1209677419354839</v>
+        <v>0.07567567567567568</v>
       </c>
       <c r="L59">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M59">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3663,47 +3639,47 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>109</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:17">
       <c r="J60" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K60">
-        <v>0.08695652173913043</v>
+        <v>0.05288461538461538</v>
       </c>
       <c r="L60">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M60">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="N60">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>168</v>
+        <v>394</v>
       </c>
     </row>
     <row r="61" spans="1:17">
       <c r="J61" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K61">
-        <v>0.06228373702422145</v>
+        <v>0.05118829981718465</v>
       </c>
       <c r="L61">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M61">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3715,189 +3691,189 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>271</v>
+        <v>519</v>
       </c>
     </row>
     <row r="62" spans="1:17">
       <c r="J62" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K62">
-        <v>0.04761904761904762</v>
+        <v>0.04602510460251046</v>
       </c>
       <c r="L62">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="M62">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="N62">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="O62">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>520</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="63" spans="1:17">
       <c r="J63" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K63">
-        <v>0.04347826086956522</v>
+        <v>0.04220779220779221</v>
       </c>
       <c r="L63">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M63">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="N63">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>1144</v>
+        <v>295</v>
       </c>
     </row>
     <row r="64" spans="1:17">
       <c r="J64" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K64">
-        <v>0.0360576923076923</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="L64">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M64">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>401</v>
+        <v>588</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K65">
-        <v>0.0360576923076923</v>
+        <v>0.02032520325203252</v>
       </c>
       <c r="L65">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M65">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N65">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="O65">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="P65" t="b">
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>401</v>
+        <v>964</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K66">
-        <v>0.02223897474557105</v>
+        <v>0.01881113619262604</v>
       </c>
       <c r="L66">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="M66">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="N66">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="O66">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>2594</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K67">
-        <v>0.0200920887400586</v>
+        <v>0.01820728291316527</v>
       </c>
       <c r="L67">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M67">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="N67">
-        <v>0.91</v>
+        <v>0.68</v>
       </c>
       <c r="O67">
-        <v>0.08999999999999997</v>
+        <v>0.32</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>2341</v>
+        <v>701</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="K68">
-        <v>0.01729559748427673</v>
+        <v>0.01692708333333333</v>
       </c>
       <c r="L68">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M68">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="N68">
-        <v>0.5600000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="O68">
-        <v>0.4399999999999999</v>
+        <v>0.13</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>1250</v>
+        <v>755</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -3905,25 +3881,25 @@
         <v>129</v>
       </c>
       <c r="K69">
-        <v>0.01677852348993289</v>
+        <v>0.01681614349775785</v>
       </c>
       <c r="L69">
         <v>15</v>
       </c>
       <c r="M69">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -3931,169 +3907,169 @@
         <v>130</v>
       </c>
       <c r="K70">
-        <v>0.01555555555555556</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="L70">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M70">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N70">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O70">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P70" t="b">
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>131</v>
+        <v>55</v>
       </c>
       <c r="K71">
-        <v>0.01541425818882466</v>
+        <v>0.01568627450980392</v>
       </c>
       <c r="L71">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M71">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="N71">
-        <v>0.89</v>
+        <v>0.59</v>
       </c>
       <c r="O71">
-        <v>0.11</v>
+        <v>0.41</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>1022</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K72">
-        <v>0.01521298174442191</v>
+        <v>0.0154291224686596</v>
       </c>
       <c r="L72">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M72">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N72">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="O72">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>971</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K73">
-        <v>0.01495972382048331</v>
+        <v>0.01514195583596215</v>
       </c>
       <c r="L73">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M73">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="N73">
-        <v>0.59</v>
+        <v>0.73</v>
       </c>
       <c r="O73">
-        <v>0.41</v>
+        <v>0.27</v>
       </c>
       <c r="P73" t="b">
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>856</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>134</v>
+        <v>60</v>
       </c>
       <c r="K74">
-        <v>0.01261829652996845</v>
+        <v>0.01277297074577668</v>
       </c>
       <c r="L74">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="M74">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="N74">
-        <v>0.6899999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="O74">
-        <v>0.3100000000000001</v>
+        <v>0.37</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>1565</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="K75">
-        <v>0.01224874371859296</v>
+        <v>0.01213389121338912</v>
       </c>
       <c r="L75">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="M75">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="N75">
-        <v>0.7</v>
+        <v>0.88</v>
       </c>
       <c r="O75">
-        <v>0.3</v>
+        <v>0.12</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>3145</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K76">
-        <v>0.0102843315184513</v>
+        <v>0.01047729918509895</v>
       </c>
       <c r="L76">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="M76">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="N76">
         <v>0.58</v>
@@ -4105,111 +4081,111 @@
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>4908</v>
+        <v>4250</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="K77">
-        <v>0.009872480460715755</v>
+        <v>0.01024208566108007</v>
       </c>
       <c r="L77">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M77">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="N77">
-        <v>0.63</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="O77">
-        <v>0.37</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="P77" t="b">
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>2407</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K78">
-        <v>0.00908879049172687</v>
+        <v>0.009889001009081735</v>
       </c>
       <c r="L78">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M78">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="N78">
-        <v>0.51</v>
+        <v>0.54</v>
       </c>
       <c r="O78">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="P78" t="b">
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>4252</v>
+        <v>4906</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K79">
-        <v>0.008585365853658537</v>
+        <v>0.009113764927718416</v>
       </c>
       <c r="L79">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="M79">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="N79">
-        <v>0.52</v>
+        <v>0.6</v>
       </c>
       <c r="O79">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
       <c r="P79" t="b">
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>5081</v>
+        <v>3153</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K80">
-        <v>0.007009345794392523</v>
+        <v>0.008989642368575338</v>
       </c>
       <c r="L80">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="M80">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="N80">
-        <v>0.45</v>
+        <v>0.49</v>
       </c>
       <c r="O80">
-        <v>0.55</v>
+        <v>0.51</v>
       </c>
       <c r="P80" t="b">
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>2125</v>
+        <v>5071</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -4217,25 +4193,77 @@
         <v>56</v>
       </c>
       <c r="K81">
-        <v>0.00657606313020605</v>
+        <v>0.006996064713598601</v>
       </c>
       <c r="L81">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M81">
+        <v>38</v>
+      </c>
+      <c r="N81">
+        <v>0.42</v>
+      </c>
+      <c r="O81">
+        <v>0.5800000000000001</v>
+      </c>
+      <c r="P81" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="82" spans="10:17">
+      <c r="J82" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K82">
+        <v>0.006881720430107527</v>
+      </c>
+      <c r="L82">
+        <v>16</v>
+      </c>
+      <c r="M82">
+        <v>70</v>
+      </c>
+      <c r="N82">
+        <v>0.23</v>
+      </c>
+      <c r="O82">
+        <v>0.77</v>
+      </c>
+      <c r="P82" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="83" spans="10:17">
+      <c r="J83" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K83">
+        <v>0.006152389966871746</v>
+      </c>
+      <c r="L83">
+        <v>13</v>
+      </c>
+      <c r="M83">
         <v>43</v>
       </c>
-      <c r="N81">
-        <v>0.35</v>
-      </c>
-      <c r="O81">
-        <v>0.65</v>
-      </c>
-      <c r="P81" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q81">
-        <v>2266</v>
+      <c r="N83">
+        <v>0.3</v>
+      </c>
+      <c r="O83">
+        <v>0.7</v>
+      </c>
+      <c r="P83" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>2100</v>
       </c>
     </row>
   </sheetData>
